--- a/data/trans_media/Q02G_FES-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q02G_FES-Estudios-trans_media.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,38</t>
+          <t>2,83; 6,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 10,76</t>
+          <t>2,46; 12,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 4,69</t>
+          <t>2,85; 4,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,81; 4,2</t>
+          <t>2,86; 4,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,06; 4,85</t>
+          <t>3,12; 4,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,96; 5,23</t>
+          <t>3,05; 5,43</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,44</t>
+          <t>2,06; 4,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,74; 5,57</t>
+          <t>2,77; 5,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 5,11</t>
+          <t>3,21; 4,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,07; 5,12</t>
+          <t>3,05; 5,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,1; 4,46</t>
+          <t>3,1; 4,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,13; 4,86</t>
+          <t>3,18; 4,91</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,46</t>
+          <t>0,2; 2,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,55</t>
+          <t>0,99; 2,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,92</t>
+          <t>0,59; 2,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 10,05</t>
+          <t>3,3; 9,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,28</t>
+          <t>0,74; 2,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 8,05</t>
+          <t>2,69; 8,13</t>
         </is>
       </c>
     </row>
@@ -879,27 +879,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,22</t>
+          <t>2,38; 4,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,43</t>
+          <t>2,79; 5,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 4,39</t>
+          <t>3,19; 4,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,38; 5,02</t>
+          <t>3,36; 5,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,1; 4,17</t>
+          <t>3,15; 4,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
